--- a/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
+++ b/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/4COM01_RNASeqGEO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/4COM01_RNASeq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51485D21-3846-704D-97A6-4CD43F73ED7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32179929-A314-3C4C-8772-FAD6F250CA0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4820" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-4760" yWindow="-21100" windowWidth="28200" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM01_RNASeq" sheetId="5" r:id="rId1"/>
@@ -226,9 +226,6 @@
     <t xml:space="preserve">Comment: </t>
   </si>
   <si>
-    <t>ER Pipeline: GEO - RNASeq - Plants</t>
-  </si>
-  <si>
     <t>ER target term</t>
   </si>
   <si>
@@ -372,6 +369,9 @@
   <si>
     <t>Also maps to:
 data_processing_pipeline.processed_data_files_format_and_content</t>
+  </si>
+  <si>
+    <t>ER GEO_RNASEQ</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -595,9 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1023,7 +1020,7 @@
       <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1032,10 +1029,10 @@
     <col min="2" max="2" width="29.1640625" style="18" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33" style="29" customWidth="1"/>
+    <col min="5" max="5" width="45.1640625" style="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="62.33203125" style="29" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="68.5" style="29" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="33.83203125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="41.1640625" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="69" style="29" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="75.1640625" style="29" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="44" style="29" bestFit="1" customWidth="1"/>
@@ -1287,7 +1284,7 @@
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -1298,17 +1295,17 @@
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
       <c r="N5" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
       <c r="T5" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U5" s="23"/>
       <c r="V5" s="23"/>
@@ -1319,7 +1316,7 @@
       <c r="AA5" s="23"/>
       <c r="AB5" s="23"/>
       <c r="AC5" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD5" s="23"/>
       <c r="AE5" s="23"/>
@@ -1344,7 +1341,7 @@
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
@@ -1361,7 +1358,7 @@
       <c r="AA6" s="23"/>
       <c r="AB6" s="23"/>
       <c r="AC6" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD6" s="23"/>
       <c r="AE6" s="23"/>
@@ -1386,7 +1383,7 @@
       <c r="L7" s="23"/>
       <c r="M7" s="23"/>
       <c r="N7" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
@@ -1403,7 +1400,7 @@
       <c r="AA7" s="23"/>
       <c r="AB7" s="23"/>
       <c r="AC7" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD7" s="23"/>
       <c r="AE7" s="23"/>
@@ -1428,7 +1425,7 @@
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O8" s="23"/>
       <c r="P8" s="23"/>
@@ -1535,52 +1532,52 @@
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
       <c r="T11" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U11" s="24"/>
       <c r="V11" s="24"/>
       <c r="W11" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X11" s="24"/>
       <c r="Y11" s="24"/>
       <c r="Z11" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA11" s="24"/>
       <c r="AB11" s="24"/>
       <c r="AC11" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD11" s="24"/>
       <c r="AE11" s="24"/>
       <c r="AF11" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG11" s="24"/>
       <c r="AH11" s="24"/>
@@ -1595,52 +1592,52 @@
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
       <c r="N12" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
       <c r="Q12" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U12" s="25"/>
       <c r="V12" s="25"/>
       <c r="W12" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X12" s="25"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA12" s="25"/>
       <c r="AB12" s="25"/>
       <c r="AC12" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD12" s="25"/>
       <c r="AE12" s="25"/>
       <c r="AF12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG12" s="25"/>
       <c r="AH12" s="25"/>
@@ -1695,7 +1692,7 @@
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
@@ -1737,7 +1734,7 @@
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
@@ -1806,7 +1803,7 @@
       <c r="AD16" s="27"/>
       <c r="AE16" s="27"/>
       <c r="AF16" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG16" s="27"/>
       <c r="AH16" s="27"/>
@@ -2005,107 +2002,107 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
       <c r="N22" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R22" s="20"/>
       <c r="S22" s="20"/>
       <c r="T22" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="W22" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="W22" s="29" t="s">
+      <c r="Z22" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="Z22" s="29" t="s">
+      <c r="AC22" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="AC22" s="29" t="s">
+      <c r="AF22" s="29" t="s">
         <v>86</v>
-      </c>
-      <c r="AF22" s="29" t="s">
-        <v>87</v>
       </c>
       <c r="AG22" s="20"/>
       <c r="AH22" s="20"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
       <c r="N23" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R23" s="20"/>
       <c r="S23" s="20"/>
       <c r="T23" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U23" s="20"/>
       <c r="V23" s="20"/>
       <c r="W23" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
       <c r="AC23" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD23" s="20"/>
       <c r="AE23" s="20"/>
@@ -2115,10 +2112,10 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -2153,12 +2150,12 @@
       <c r="AG24" s="20"/>
       <c r="AH24" s="20"/>
     </row>
-    <row r="25" spans="1:34" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>46</v>
+    <row r="25" spans="1:34" s="32" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -2193,12 +2190,12 @@
       <c r="AG25" s="21"/>
       <c r="AH25" s="21"/>
     </row>
-    <row r="26" spans="1:34" s="33" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>47</v>
+    <row r="26" spans="1:34" s="32" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -2224,12 +2221,12 @@
       <c r="X26" s="21"/>
       <c r="Y26" s="21"/>
       <c r="Z26" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="30"/>
       <c r="AB26" s="30"/>
       <c r="AC26" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AD26" s="21"/>
       <c r="AE26" s="21"/>
@@ -2237,12 +2234,12 @@
       <c r="AG26" s="21"/>
       <c r="AH26" s="21"/>
     </row>
-    <row r="27" spans="1:34" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>48</v>
+    <row r="27" spans="1:34" s="32" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
@@ -2277,45 +2274,45 @@
       <c r="AG27" s="21"/>
       <c r="AH27" s="21"/>
     </row>
-    <row r="28" spans="1:34" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="35"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="35"/>
+    <row r="28" spans="1:34" s="32" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>

--- a/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
+++ b/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/4COM01_RNASeq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51758A99-5689-DF49-A516-96B2E2EA1852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADABABB-9314-5E44-A3AC-6FB53C162D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="11200" yWindow="-21100" windowWidth="22720" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM01_RNASeq" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
   <si>
     <t>Source Name</t>
   </si>
@@ -241,21 +241,6 @@
   </si>
   <si>
     <t>MD5 checksum</t>
-  </si>
-  <si>
-    <t>data_processing_pipeline.data_processing_step</t>
-  </si>
-  <si>
-    <t>data_processing_pipeline.genome_build</t>
-  </si>
-  <si>
-    <t>processed_data_files.file_name</t>
-  </si>
-  <si>
-    <t>processed_data_files.file_type</t>
-  </si>
-  <si>
-    <t>processed_data_files.file_checksum</t>
   </si>
   <si>
     <t>o</t>
@@ -357,6 +342,53 @@
   </si>
   <si>
     <t>Also maps to data_processing_pipeline.processed_data_files_format_and_content</t>
+  </si>
+  <si>
+    <t>DATA PROCESSING PIPELINE_data processing step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide details of how processed data were generated. Steps may include:
+Base-calling software, version, parameters;
+Data filtering steps;
+Read alignment software, version, parameters;
+Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
+etc...
+</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>at least some info is required, but not all terms</t>
+  </si>
+  <si>
+    <t>DATA PROCESSING PIPELINE_genome build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCSC or NCBI genome build number (e.g., hg18, mm9, human NCBI genome build 36, etc...), or reference sequence used for read alignment. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCSC or NCBI genome build number </t>
+  </si>
+  <si>
+    <t>PROCESSED DATA FILES_file type</t>
+  </si>
+  <si>
+    <t>The type of processed file. Examples include, peak, wig, bed, gff, bigWig, etc...</t>
+  </si>
+  <si>
+    <t>PROCESSED DATA FILES_file name</t>
+  </si>
+  <si>
+    <t>PROCESSED DATA FILES_file checksum</t>
+  </si>
+  <si>
+    <t>[optional]
+MD5 checksum of the file. This helps us verify that the file transfer was complete and didn't corrupt your file.</t>
+  </si>
+  <si>
+    <t>MD5</t>
   </si>
 </sst>
 </file>
@@ -1025,13 +1057,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBB40E6-F06B-AE48-B869-B32AACDBDD09}">
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="13" topLeftCell="AA14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AH18" sqref="AH18"/>
+      <selection pane="bottomRight" activeCell="AG34" sqref="AG34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1076,11 +1108,11 @@
   <sheetData>
     <row r="1" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="4"/>
@@ -1117,7 +1149,7 @@
     </row>
     <row r="2" spans="1:35" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1220,7 +1252,7 @@
     </row>
     <row r="3" spans="1:35" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1296,7 +1328,7 @@
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1345,7 +1377,7 @@
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1388,7 +1420,7 @@
     </row>
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1431,7 +1463,7 @@
     </row>
     <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1472,7 +1504,7 @@
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1511,7 +1543,7 @@
     </row>
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1587,13 +1619,13 @@
     </row>
     <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -1650,13 +1682,13 @@
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1713,13 +1745,13 @@
     </row>
     <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -1756,13 +1788,13 @@
     </row>
     <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -1801,13 +1833,13 @@
     </row>
     <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -1844,10 +1876,10 @@
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="22"/>
@@ -1885,13 +1917,13 @@
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -1930,13 +1962,13 @@
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -1975,10 +2007,10 @@
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="15"/>
@@ -2016,10 +2048,10 @@
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="15"/>
@@ -2131,246 +2163,300 @@
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="15" t="s">
-        <v>72</v>
+      <c r="F24" t="s">
+        <v>104</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="15" t="s">
-        <v>72</v>
+      <c r="I24" t="s">
+        <v>104</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="15" t="s">
-        <v>72</v>
+      <c r="L24" t="s">
+        <v>104</v>
       </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="15" t="s">
-        <v>72</v>
+      <c r="O24" t="s">
+        <v>104</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
-      <c r="R24" s="24" t="s">
-        <v>72</v>
+      <c r="R24" t="s">
+        <v>104</v>
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
-      <c r="U24" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="X24" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA24" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD24" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG24" s="24" t="s">
-        <v>76</v>
+      <c r="U24" t="s">
+        <v>104</v>
+      </c>
+      <c r="X24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>114</v>
       </c>
       <c r="AH24" s="15"/>
       <c r="AI24" s="15"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
+      <c r="I25" t="s">
+        <v>105</v>
+      </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
+      <c r="L25" t="s">
+        <v>105</v>
+      </c>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
+      <c r="O25" t="s">
+        <v>105</v>
+      </c>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
+      <c r="R25" t="s">
+        <v>105</v>
+      </c>
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
+      <c r="U25" t="s">
+        <v>105</v>
+      </c>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
+      <c r="X25" t="s">
+        <v>109</v>
+      </c>
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
+      <c r="AA25"/>
       <c r="AB25" s="15"/>
       <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
+      <c r="AD25" t="s">
+        <v>112</v>
+      </c>
       <c r="AE25" s="15"/>
       <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
+      <c r="AG25" t="s">
+        <v>115</v>
+      </c>
       <c r="AH25" s="15"/>
       <c r="AI25" s="15"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="15" t="s">
-        <v>77</v>
+      <c r="F26" t="s">
+        <v>72</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="15" t="s">
-        <v>77</v>
+      <c r="I26" t="s">
+        <v>72</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
-      <c r="L26" s="15" t="s">
-        <v>77</v>
+      <c r="L26" t="s">
+        <v>72</v>
       </c>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="15" t="s">
-        <v>77</v>
+      <c r="O26" t="s">
+        <v>72</v>
       </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
-      <c r="R26" s="15" t="s">
-        <v>77</v>
+      <c r="R26" t="s">
+        <v>72</v>
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="15"/>
-      <c r="U26" s="15" t="s">
-        <v>77</v>
+      <c r="U26" t="s">
+        <v>72</v>
       </c>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
-      <c r="X26" s="15" t="s">
-        <v>78</v>
+      <c r="X26" t="s">
+        <v>73</v>
       </c>
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
-      <c r="AA26" s="15" t="s">
-        <v>78</v>
+      <c r="AA26" t="s">
+        <v>73</v>
       </c>
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
-      <c r="AD26" s="15" t="s">
-        <v>78</v>
+      <c r="AD26" t="s">
+        <v>73</v>
       </c>
       <c r="AE26" s="15"/>
       <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
+      <c r="AG26" t="s">
+        <v>72</v>
+      </c>
       <c r="AH26" s="15"/>
       <c r="AI26" s="15"/>
     </row>
     <row r="27" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="F27" t="s">
+        <v>106</v>
+      </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
+      <c r="I27" t="s">
+        <v>106</v>
+      </c>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
+      <c r="L27" t="s">
+        <v>106</v>
+      </c>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
+      <c r="O27" t="s">
+        <v>106</v>
+      </c>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
+      <c r="R27" t="s">
+        <v>106</v>
+      </c>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
+      <c r="U27" t="s">
+        <v>106</v>
+      </c>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
+      <c r="X27" t="s">
+        <v>106</v>
+      </c>
       <c r="Y27" s="16"/>
       <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
+      <c r="AA27" t="s">
+        <v>106</v>
+      </c>
       <c r="AB27" s="16"/>
       <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
+      <c r="AD27" t="s">
+        <v>106</v>
+      </c>
       <c r="AE27" s="16"/>
       <c r="AF27" s="16"/>
-      <c r="AG27" s="16"/>
+      <c r="AG27" t="s">
+        <v>116</v>
+      </c>
       <c r="AH27" s="16"/>
       <c r="AI27" s="16"/>
     </row>
-    <row r="28" spans="1:35" s="27" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" s="27" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="F28" t="s">
+        <v>107</v>
+      </c>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
+      <c r="I28" t="s">
+        <v>107</v>
+      </c>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
+      <c r="L28" t="s">
+        <v>107</v>
+      </c>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
+      <c r="O28" t="s">
+        <v>107</v>
+      </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
+      <c r="R28" t="s">
+        <v>107</v>
+      </c>
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
+      <c r="U28" t="s">
+        <v>107</v>
+      </c>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
+      <c r="X28" t="s">
+        <v>110</v>
+      </c>
       <c r="Y28" s="16"/>
       <c r="Z28" s="16"/>
       <c r="AA28" s="25" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AB28" s="25"/>
       <c r="AC28" s="25"/>
       <c r="AD28" s="25" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AE28" s="16"/>
       <c r="AF28" s="16"/>
@@ -2380,13 +2466,13 @@
     </row>
     <row r="29" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B29" s="39" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>

--- a/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
+++ b/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/4COM01_RNASeq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\4COM01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADABABB-9314-5E44-A3AC-6FB53C162D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AECBBF-E6A2-4C4E-AC5F-7FFA75A8B403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="-21100" windowWidth="22720" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM01_RNASeq" sheetId="5" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="123">
   <si>
     <t>Source Name</t>
   </si>
@@ -389,6 +398,24 @@
   </si>
   <si>
     <t>MD5</t>
+  </si>
+  <si>
+    <t>The name of the output of this assay</t>
+  </si>
+  <si>
+    <t>User instruction missing</t>
+  </si>
+  <si>
+    <t>The version of the Data filtering software used.</t>
+  </si>
+  <si>
+    <t>The version of the Read Alignment Software used.</t>
+  </si>
+  <si>
+    <t>The name of the Processed data file of this sample.</t>
+  </si>
+  <si>
+    <t>The name of the input (the source) of this assay.</t>
   </si>
 </sst>
 </file>
@@ -460,7 +487,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +536,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -552,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -652,10 +685,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{C330E3B2-2BF7-184E-8C2F-47A51BE085E3}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -743,7 +784,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1060,53 +1101,53 @@
   <dimension ref="A1:AI30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AG34" sqref="AG34"/>
+      <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="23.625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="24" customWidth="1"/>
     <col min="3" max="3" width="41" style="24"/>
-    <col min="4" max="4" width="14.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.33203125" style="24" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.375" style="24" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="68.5" style="24" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="41.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.125" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="69" style="24" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="75.1640625" style="24" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="75.125" style="24" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="44" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="72.83203125" style="24" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="72.875" style="24" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="79" style="24" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="41.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="64.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="41.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="64.625" style="24" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="71" style="24" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="42.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="71.6640625" style="24" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="77.83203125" style="24" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="46.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="42.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="71.625" style="24" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="77.875" style="24" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="46.375" style="24" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="75" style="24" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="81.33203125" style="24" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="38.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="67.1640625" style="24" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="73.33203125" style="24" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="40.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="64.1640625" style="24" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="81.375" style="24" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="38.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="67.125" style="24" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="73.375" style="24" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="40.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="64.125" style="24" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="70.5" style="24" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="40.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="65.33203125" style="24" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="40.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="65.375" style="24" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="71.5" style="24" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="39" style="24" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="67.83203125" style="24" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="67.875" style="24" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="74" style="24" hidden="1" customWidth="1"/>
     <col min="36" max="16384" width="41" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -1147,7 +1188,7 @@
       <c r="AH1" s="4"/>
       <c r="AI1" s="2"/>
     </row>
-    <row r="2" spans="1:35" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>76</v>
       </c>
@@ -1250,7 +1291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
@@ -1289,7 +1330,7 @@
       <c r="AH3"/>
       <c r="AI3"/>
     </row>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1326,7 +1367,7 @@
       <c r="AH4" s="17"/>
       <c r="AI4" s="17"/>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>78</v>
       </c>
@@ -1375,7 +1416,7 @@
       <c r="AH5" s="18"/>
       <c r="AI5" s="18"/>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>78</v>
       </c>
@@ -1418,7 +1459,7 @@
       <c r="AH6" s="18"/>
       <c r="AI6" s="18"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>78</v>
       </c>
@@ -1461,7 +1502,7 @@
       <c r="AH7" s="18"/>
       <c r="AI7" s="18"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>78</v>
       </c>
@@ -1502,7 +1543,7 @@
       <c r="AH8" s="18"/>
       <c r="AI8" s="18"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>78</v>
       </c>
@@ -1541,7 +1582,7 @@
       <c r="AH9" s="18"/>
       <c r="AI9" s="18"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>78</v>
       </c>
@@ -1580,7 +1621,7 @@
       <c r="AH10" s="18"/>
       <c r="AI10" s="18"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1617,7 +1658,7 @@
       <c r="AH11" s="17"/>
       <c r="AI11" s="17"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>79</v>
       </c>
@@ -1680,7 +1721,7 @@
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>79</v>
       </c>
@@ -1743,7 +1784,7 @@
       <c r="AH13" s="20"/>
       <c r="AI13" s="20"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>79</v>
       </c>
@@ -1786,7 +1827,7 @@
       <c r="AH14" s="15"/>
       <c r="AI14" s="15"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>79</v>
       </c>
@@ -1831,7 +1872,7 @@
       <c r="AH15" s="15"/>
       <c r="AI15" s="15"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>85</v>
       </c>
@@ -1841,12 +1882,18 @@
       <c r="C16" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>117</v>
+      </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="I16" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
@@ -1855,7 +1902,9 @@
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
+      <c r="R16" s="43" t="s">
+        <v>120</v>
+      </c>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
@@ -1864,7 +1913,9 @@
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
+      <c r="AA16" s="44" t="s">
+        <v>121</v>
+      </c>
       <c r="AB16" s="21"/>
       <c r="AC16" s="21"/>
       <c r="AD16" s="21"/>
@@ -1874,7 +1925,7 @@
       <c r="AH16" s="21"/>
       <c r="AI16" s="21"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>85</v>
       </c>
@@ -1915,7 +1966,7 @@
       <c r="AH17" s="22"/>
       <c r="AI17" s="22"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>88</v>
       </c>
@@ -1960,7 +2011,7 @@
       <c r="AH18" s="15"/>
       <c r="AI18" s="15"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>88</v>
       </c>
@@ -2005,7 +2056,7 @@
       <c r="AH19" s="15"/>
       <c r="AI19" s="15"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>88</v>
       </c>
@@ -2046,7 +2097,7 @@
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>88</v>
       </c>
@@ -2056,38 +2107,52 @@
       <c r="C21" s="26"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="42" t="s">
+        <v>118</v>
+      </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="L21" s="42" t="s">
+        <v>118</v>
+      </c>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
+      <c r="O21" s="42" t="s">
+        <v>118</v>
+      </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
+      <c r="U21" s="42" t="s">
+        <v>118</v>
+      </c>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
+      <c r="X21" s="42" t="s">
+        <v>118</v>
+      </c>
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
+      <c r="AD21" s="42" t="s">
+        <v>118</v>
+      </c>
       <c r="AE21" s="15"/>
       <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
+      <c r="AG21" s="42" t="s">
+        <v>118</v>
+      </c>
       <c r="AH21" s="15"/>
       <c r="AI21" s="15"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2124,7 +2189,7 @@
       <c r="AH22" s="23"/>
       <c r="AI22" s="23"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2161,7 +2226,7 @@
       <c r="AH23" s="23"/>
       <c r="AI23" s="23"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>75</v>
       </c>
@@ -2216,7 +2281,7 @@
       <c r="AH24" s="15"/>
       <c r="AI24" s="15"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>75</v>
       </c>
@@ -2277,7 +2342,7 @@
       <c r="AH25" s="15"/>
       <c r="AI25" s="15"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>75</v>
       </c>
@@ -2340,7 +2405,7 @@
       <c r="AH26" s="15"/>
       <c r="AI26" s="15"/>
     </row>
-    <row r="27" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>75</v>
       </c>
@@ -2403,7 +2468,7 @@
       <c r="AH27" s="16"/>
       <c r="AI27" s="16"/>
     </row>
-    <row r="28" spans="1:35" s="27" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" s="27" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>75</v>
       </c>
@@ -2464,7 +2529,7 @@
       <c r="AH28" s="16"/>
       <c r="AI28" s="16"/>
     </row>
-    <row r="29" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>75</v>
       </c>
@@ -2507,7 +2572,7 @@
       <c r="AH29" s="28"/>
       <c r="AI29" s="28"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>

--- a/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
+++ b/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\4COM01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AECBBF-E6A2-4C4E-AC5F-7FFA75A8B403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DF7193-47BD-46BB-8D9C-4FF8F490971B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM01_RNASeq" sheetId="5" r:id="rId1"/>
@@ -1104,7 +1104,7 @@
       <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
+++ b/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\4COM01_RNASeq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/4COM01_RNASeq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DF7193-47BD-46BB-8D9C-4FF8F490971B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3C35EA-13C6-7243-A1F5-2BFAD888676C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-25100" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM01_RNASeq" sheetId="5" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="115">
   <si>
     <t>Source Name</t>
   </si>
@@ -123,15 +114,6 @@
     <t>Term Accession Number [Processed data file format] (#h; #tNFDI4PSO:0000027)</t>
   </si>
   <si>
-    <t>Parameter [Processed data file checksum]</t>
-  </si>
-  <si>
-    <t>Term Source REF [Processed data file checksum] (#h; #tNFDI4PSO:0000029)</t>
-  </si>
-  <si>
-    <t>Term Accession Number [Processed data file checksum] (#h; #tNFDI4PSO:0000029)</t>
-  </si>
-  <si>
     <t>Term Name</t>
   </si>
   <si>
@@ -243,23 +225,10 @@
     <t>NFDI4PSO:0000028</t>
   </si>
   <si>
-    <t>Processed data file checksum</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000029</t>
-  </si>
-  <si>
-    <t>MD5 checksum</t>
-  </si>
-  <si>
     <t>o</t>
   </si>
   <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>Also maps to:
-data_processing_pipeline.processed_data_files_format_and_content</t>
   </si>
   <si>
     <t>ER GEO_RNASEQ</t>
@@ -348,9 +317,6 @@
   </si>
   <si>
     <t>Comments towards the original template author</t>
-  </si>
-  <si>
-    <t>Also maps to data_processing_pipeline.processed_data_files_format_and_content</t>
   </si>
   <si>
     <t>DATA PROCESSING PIPELINE_data processing step</t>
@@ -390,22 +356,6 @@
     <t>PROCESSED DATA FILES_file name</t>
   </si>
   <si>
-    <t>PROCESSED DATA FILES_file checksum</t>
-  </si>
-  <si>
-    <t>[optional]
-MD5 checksum of the file. This helps us verify that the file transfer was complete and didn't corrupt your file.</t>
-  </si>
-  <si>
-    <t>MD5</t>
-  </si>
-  <si>
-    <t>The name of the output of this assay</t>
-  </si>
-  <si>
-    <t>User instruction missing</t>
-  </si>
-  <si>
     <t>The version of the Data filtering software used.</t>
   </si>
   <si>
@@ -415,7 +365,23 @@
     <t>The name of the Processed data file of this sample.</t>
   </si>
   <si>
-    <t>The name of the input (the source) of this assay.</t>
+    <t>Name the software used for filtering</t>
+  </si>
+  <si>
+    <t>Name additional parameters of the software used for filtering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name the software used for read alignment. </t>
+  </si>
+  <si>
+    <t>Name additional parameters of the software used for read alignment</t>
+  </si>
+  <si>
+    <t>UCSC or NCBI genome build number or reference sequence used for read alignment. 
+"</t>
+  </si>
+  <si>
+    <t>The format of the processed data file of this sample.</t>
   </si>
 </sst>
 </file>
@@ -487,7 +453,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,12 +493,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -637,9 +597,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -685,23 +642,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{C330E3B2-2BF7-184E-8C2F-47A51BE085E3}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -743,48 +705,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B1E8DF05-C9A4-774C-927F-FE22EC52758A}" name="annotationTable3" displayName="annotationTable3" ref="D2:AI3" totalsRowShown="0">
-  <autoFilter ref="D2:AI3" xr:uid="{856B7222-837D-994E-B57E-2C90FB73CB67}"/>
-  <tableColumns count="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B1E8DF05-C9A4-774C-927F-FE22EC52758A}" name="annotationTable3" displayName="annotationTable3" ref="D2:AF3" totalsRowShown="0">
+  <autoFilter ref="D2:AF3" xr:uid="{856B7222-837D-994E-B57E-2C90FB73CB67}"/>
+  <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{FFCB64B6-F7E5-3141-8AC8-90DEF404CB27}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{83E02E49-7422-0646-B55C-39A1A7410443}" name="Sample Name"/>
-    <tableColumn id="4" xr3:uid="{F9A5CAD2-0A38-694B-9DC8-DECACF24DB8E}" name="Parameter [Data filtering software]" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F9A5CAD2-0A38-694B-9DC8-DECACF24DB8E}" name="Parameter [Data filtering software]" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{9BD7F665-ACF2-AC46-8E4B-BC65E4CC9332}" name="Term Source REF [Data filtering software] (#h; #tNFDI4PSO:0000023)"/>
     <tableColumn id="6" xr3:uid="{F10506DB-3273-1241-9DB7-346C18CF37F1}" name="Term Accession Number [Data filtering software] (#h; #tNFDI4PSO:0000023)"/>
-    <tableColumn id="7" xr3:uid="{68487AE4-045B-704E-A2D6-A2A6C43E478B}" name="Parameter [Data filtering software version]" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{68487AE4-045B-704E-A2D6-A2A6C43E478B}" name="Parameter [Data filtering software version]" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{A632703F-F636-4B4F-9F4D-62F900DD4347}" name="Term Source REF [Data filtering software version] (#h; #tNFDI4PSO:0000024)"/>
     <tableColumn id="9" xr3:uid="{3FC0B085-3D78-6649-B099-338E88913144}" name="Term Accession Number [Data filtering software version] (#h; #tNFDI4PSO:0000024)"/>
-    <tableColumn id="10" xr3:uid="{23307D4F-AFEA-5C4B-8BE1-C221DEE1C0DC}" name="Parameter [Data filtering Software Parameters]" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{23307D4F-AFEA-5C4B-8BE1-C221DEE1C0DC}" name="Parameter [Data filtering Software Parameters]" dataDxfId="6"/>
     <tableColumn id="11" xr3:uid="{533A6307-FD87-4342-9FC3-3EE2FA1A5BD2}" name="Term Source REF [Data filtering Software Parameters] (#h; #tNFDI4PSO:0000025)"/>
     <tableColumn id="12" xr3:uid="{9F20A65A-4044-5042-B538-01C73D1FF28A}" name="Term Accession Number [Data filtering Software Parameters] (#h; #tNFDI4PSO:0000025)"/>
-    <tableColumn id="13" xr3:uid="{17F4AAC9-26E6-A64B-87CC-F564323F95A2}" name="Parameter [Read Alignment Software]" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{17F4AAC9-26E6-A64B-87CC-F564323F95A2}" name="Parameter [Read Alignment Software]" dataDxfId="5"/>
     <tableColumn id="14" xr3:uid="{CB480599-32D5-3D47-8627-C13C12DD0846}" name="Term Source REF [Read Alignment Software] (#h; #tNFDI4PSO:0000002)"/>
     <tableColumn id="15" xr3:uid="{2876D89B-FE92-2C4A-AA83-57EDA9956D37}" name="Term Accession Number [Read Alignment Software] (#h; #tNFDI4PSO:0000002)"/>
-    <tableColumn id="22" xr3:uid="{7B135548-3E80-444F-A46D-623E886C73D6}" name="Parameter [Read Alignment Software Version]" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{7B135548-3E80-444F-A46D-623E886C73D6}" name="Parameter [Read Alignment Software Version]" dataDxfId="4"/>
     <tableColumn id="23" xr3:uid="{025F485C-08C4-AF40-9BF6-D462AAEA2325}" name="Term Source REF [Read Alignment Software Version] (#h; #tNFDI4PSO:0000003)"/>
     <tableColumn id="24" xr3:uid="{3CA07897-AB36-F842-8796-DED31FD0F807}" name="Term Accession Number [Read Alignment Software Version] (#h; #tNFDI4PSO:0000003)"/>
-    <tableColumn id="25" xr3:uid="{F90B0BDC-C22F-114D-AFC3-17D2DF0B1D22}" name="Parameter [Read Alignment Software Parameters]" dataDxfId="4"/>
+    <tableColumn id="25" xr3:uid="{F90B0BDC-C22F-114D-AFC3-17D2DF0B1D22}" name="Parameter [Read Alignment Software Parameters]" dataDxfId="3"/>
     <tableColumn id="26" xr3:uid="{F09CEB55-616A-B84E-8DA8-AAAD529E7C2A}" name="Term Source REF [Read Alignment Software Parameters] (#h; #tNFDI4PSO:0000004)"/>
     <tableColumn id="27" xr3:uid="{52F8AB65-BCD8-4F4A-8C7E-EDB7DEDD906C}" name="Term Accession Number [Read Alignment Software Parameters] (#h; #tNFDI4PSO:0000004)"/>
-    <tableColumn id="28" xr3:uid="{E654730E-3E03-B744-962D-D0600B2531BE}" name="Parameter [Genome reference sequence]" dataDxfId="3"/>
+    <tableColumn id="28" xr3:uid="{E654730E-3E03-B744-962D-D0600B2531BE}" name="Parameter [Genome reference sequence]" dataDxfId="2"/>
     <tableColumn id="29" xr3:uid="{B3703F27-4802-1E40-9004-98F68F872BFA}" name="Term Source REF [Genome reference sequence] (#h; #tNFDI4PSO:0000026)"/>
     <tableColumn id="30" xr3:uid="{EB347C09-2150-CA40-A1AC-873972D316C7}" name="Term Accession Number [Genome reference sequence] (#h; #tNFDI4PSO:0000026)"/>
-    <tableColumn id="31" xr3:uid="{EBBCCD91-64AC-C946-AA91-3572672BB283}" name="Parameter [Processed data file name]" dataDxfId="2"/>
+    <tableColumn id="31" xr3:uid="{EBBCCD91-64AC-C946-AA91-3572672BB283}" name="Parameter [Processed data file name]" dataDxfId="1"/>
     <tableColumn id="32" xr3:uid="{3B8CDAC0-C510-4944-A64F-B74587C4D9D1}" name="Term Source REF [Processed data file name] (#h; #tNFDI4PSO:0000028)"/>
     <tableColumn id="33" xr3:uid="{585BD5A3-841F-D341-87D6-7497347BD8DB}" name="Term Accession Number [Processed data file name] (#h; #tNFDI4PSO:0000028)"/>
-    <tableColumn id="34" xr3:uid="{31F0606E-CA0F-2845-B598-91818C3E8DED}" name="Parameter [Processed data file format]" dataDxfId="1"/>
+    <tableColumn id="34" xr3:uid="{31F0606E-CA0F-2845-B598-91818C3E8DED}" name="Parameter [Processed data file format]" dataDxfId="0"/>
     <tableColumn id="35" xr3:uid="{2242708D-0E7B-4A4C-9438-B9769BD4A175}" name="Term Source REF [Processed data file format] (#h; #tNFDI4PSO:0000027)"/>
     <tableColumn id="36" xr3:uid="{41E1DBD7-6CC8-3044-87D9-F4CBA8FAA96B}" name="Term Accession Number [Processed data file format] (#h; #tNFDI4PSO:0000027)"/>
-    <tableColumn id="37" xr3:uid="{D6BE8D3D-1912-8545-81B9-972FD46CFB87}" name="Parameter [Processed data file checksum]" dataDxfId="0"/>
-    <tableColumn id="38" xr3:uid="{6E3F9949-4270-4B40-BD63-3481325BCC9A}" name="Term Source REF [Processed data file checksum] (#h; #tNFDI4PSO:0000029)"/>
-    <tableColumn id="39" xr3:uid="{9C870A96-020A-C94A-979C-13940305A53C}" name="Term Accession Number [Processed data file checksum] (#h; #tNFDI4PSO:0000029)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1104,56 +1063,55 @@
       <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="24" customWidth="1"/>
     <col min="3" max="3" width="41" style="24"/>
-    <col min="4" max="4" width="14.625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.375" style="24" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="62.33203125" style="24" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="68.5" style="24" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="41.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.83203125" style="24" customWidth="1"/>
     <col min="10" max="10" width="69" style="24" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="75.125" style="24" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="44" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="72.875" style="24" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="75.1640625" style="24" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="40.83203125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="72.83203125" style="24" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="79" style="24" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="41.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="64.625" style="24" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="71" style="24" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="42.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="71.625" style="24" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="77.875" style="24" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="46.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.6640625" style="24" customWidth="1"/>
+    <col min="16" max="16" width="64.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="57.83203125" style="24" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="44.6640625" style="24" customWidth="1"/>
+    <col min="19" max="19" width="71.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="77.83203125" style="24" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="40.83203125" style="24" customWidth="1"/>
     <col min="22" max="22" width="75" style="24" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="81.375" style="24" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="38.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="67.125" style="24" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="73.375" style="24" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="40.625" style="24" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="64.125" style="24" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="81.33203125" style="24" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="44.33203125" style="24" customWidth="1"/>
+    <col min="25" max="25" width="67.1640625" style="24" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="6" style="24" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="40.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="64.1640625" style="24" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="70.5" style="24" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="40.625" style="24" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="65.375" style="24" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="37.5" style="24" customWidth="1"/>
+    <col min="31" max="31" width="65.33203125" style="24" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="71.5" style="24" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="39" style="24" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="67.875" style="24" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="74" style="24" hidden="1" customWidth="1"/>
-    <col min="36" max="16384" width="41" style="24"/>
+    <col min="33" max="33" width="67.83203125" style="24" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" style="24" hidden="1" customWidth="1"/>
+    <col min="35" max="16384" width="41" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="4"/>
@@ -1185,12 +1143,11 @@
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="2"/>
-    </row>
-    <row r="2" spans="1:35" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AH1" s="2"/>
+    </row>
+    <row r="2" spans="1:34" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1281,19 +1238,10 @@
       <c r="AF2" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:34" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1326,11 +1274,8 @@
       <c r="AD3" s="3"/>
       <c r="AE3"/>
       <c r="AF3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-    </row>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1365,18 +1310,17 @@
       <c r="AF4" s="17"/>
       <c r="AG4" s="17"/>
       <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-    </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -1387,17 +1331,17 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
       <c r="U5" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -1408,17 +1352,16 @@
       <c r="AB5" s="18"/>
       <c r="AC5" s="18"/>
       <c r="AD5" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AE5" s="18"/>
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-    </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1434,7 +1377,7 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
@@ -1451,17 +1394,16 @@
       <c r="AB6" s="18"/>
       <c r="AC6" s="18"/>
       <c r="AD6" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AE6" s="18"/>
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-    </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1477,7 +1419,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
@@ -1494,17 +1436,16 @@
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
       <c r="AD7" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE7" s="18"/>
       <c r="AF7" s="18"/>
       <c r="AG7" s="18"/>
       <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-    </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1520,7 +1461,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
@@ -1541,11 +1482,10 @@
       <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
       <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
-    </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1580,11 +1520,10 @@
       <c r="AF9" s="18"/>
       <c r="AG9" s="18"/>
       <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-    </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1619,9 +1558,8 @@
       <c r="AF10" s="18"/>
       <c r="AG10" s="18"/>
       <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-    </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1656,143 +1594,136 @@
       <c r="AF11" s="17"/>
       <c r="AG11" s="17"/>
       <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-    </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>80</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
       <c r="X12" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AB12" s="19"/>
       <c r="AC12" s="19"/>
       <c r="AD12" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
-      <c r="AG12" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-    </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>81</v>
+        <v>30</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
       <c r="AD13" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE13" s="20"/>
       <c r="AF13" s="20"/>
-      <c r="AG13" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="AG13" s="20"/>
       <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
-    </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -1825,17 +1756,16 @@
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-    </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>84</v>
+        <v>31</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -1866,73 +1796,77 @@
       <c r="AD15" s="15"/>
       <c r="AE15" s="15"/>
       <c r="AF15" s="15"/>
-      <c r="AG15" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="AG15" s="15"/>
       <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
-    </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="42" t="s">
+        <v>114</v>
+      </c>
       <c r="AE16" s="21"/>
       <c r="AF16" s="21"/>
       <c r="AG16" s="21"/>
       <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-    </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="C17" s="25"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
@@ -1964,22 +1898,21 @@
       <c r="AF17" s="22"/>
       <c r="AG17" s="22"/>
       <c r="AH17" s="22"/>
-      <c r="AI17" s="22"/>
-    </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -2009,22 +1942,21 @@
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-    </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>90</v>
+        <v>81</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -2054,16 +1986,15 @@
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
       <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-    </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="28"/>
+        <v>85</v>
+      </c>
+      <c r="C20" s="27"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -2095,64 +2026,48 @@
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-    </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-    </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:34" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+    </row>
+    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2187,12 +2102,11 @@
       <c r="AF22" s="23"/>
       <c r="AG22" s="23"/>
       <c r="AH22" s="23"/>
-      <c r="AI22" s="23"/>
-    </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+    </row>
+    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -2224,107 +2138,103 @@
       <c r="AF23" s="23"/>
       <c r="AG23" s="23"/>
       <c r="AH23" s="23"/>
-      <c r="AI23" s="23"/>
-    </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>94</v>
+        <v>68</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
       <c r="U24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="X24" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AA24" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AD24" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>114</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AG24" s="15"/>
       <c r="AH24" s="15"/>
-      <c r="AI24" s="15"/>
-    </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>96</v>
+        <v>68</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>89</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
       <c r="O25" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
       <c r="U25" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
       <c r="X25" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
@@ -2332,250 +2242,235 @@
       <c r="AB25" s="15"/>
       <c r="AC25" s="15"/>
       <c r="AD25" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AE25" s="15"/>
       <c r="AF25" s="15"/>
-      <c r="AG25" t="s">
-        <v>115</v>
-      </c>
+      <c r="AG25" s="15"/>
       <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
-    </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>98</v>
+        <v>68</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>91</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
       <c r="R26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="15"/>
       <c r="U26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
       <c r="X26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
       <c r="AA26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
       <c r="AD26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AE26" s="15"/>
       <c r="AF26" s="15"/>
-      <c r="AG26" t="s">
-        <v>72</v>
-      </c>
+      <c r="AG26" s="15"/>
       <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
-    </row>
-    <row r="27" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:34" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>100</v>
+        <v>68</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>93</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
       <c r="R27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
       <c r="U27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
       <c r="X27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Y27" s="16"/>
       <c r="Z27" s="16"/>
       <c r="AA27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AB27" s="16"/>
       <c r="AC27" s="16"/>
       <c r="AD27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AE27" s="16"/>
       <c r="AF27" s="16"/>
-      <c r="AG27" t="s">
-        <v>116</v>
-      </c>
+      <c r="AG27" s="16"/>
       <c r="AH27" s="16"/>
-      <c r="AI27" s="16"/>
-    </row>
-    <row r="28" spans="1:35" s="27" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:34" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>101</v>
+        <v>68</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>94</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
       <c r="R28" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
       <c r="U28" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
       <c r="X28" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Y28" s="16"/>
       <c r="Z28" s="16"/>
-      <c r="AA28" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25" t="s">
-        <v>74</v>
-      </c>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
       <c r="AE28" s="16"/>
       <c r="AF28" s="16"/>
       <c r="AG28" s="16"/>
       <c r="AH28" s="16"/>
-      <c r="AI28" s="16"/>
-    </row>
-    <row r="29" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:34" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-    </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
+        <v>68</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+    </row>
+    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -2607,7 +2502,6 @@
       <c r="AF30" s="17"/>
       <c r="AG30" s="17"/>
       <c r="AH30" s="17"/>
-      <c r="AI30" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
+++ b/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/4COM01_RNASeq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3C35EA-13C6-7243-A1F5-2BFAD888676C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901B3493-265B-A845-B930-FD19F2142909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25100" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM01_RNASeq" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="116">
   <si>
     <t>Source Name</t>
   </si>
@@ -126,9 +126,6 @@
     <t>ER target term</t>
   </si>
   <si>
-    <t>Additional information</t>
-  </si>
-  <si>
     <t>User instruction</t>
   </si>
   <si>
@@ -138,12 +135,6 @@
     <t>Trimmomatic</t>
   </si>
   <si>
-    <t>GENEPIO_0002096: read adapter trimming software</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/GENEPIO_0002096</t>
-  </si>
-  <si>
     <t>Kallisto</t>
   </si>
   <si>
@@ -235,9 +226,6 @@
   </si>
   <si>
     <t>SWATE_annotation_table</t>
-  </si>
-  <si>
-    <t>SWATE templating version (July 26, 2021)</t>
   </si>
   <si>
     <t>content_examples</t>
@@ -382,6 +370,21 @@
   </si>
   <si>
     <t>The format of the processed data file of this sample.</t>
+  </si>
+  <si>
+    <t>SWATE templating version (August 18, 2021)</t>
+  </si>
+  <si>
+    <t>is_a term</t>
+  </si>
+  <si>
+    <t>Use to specify subclasses of existing terms</t>
+  </si>
+  <si>
+    <t>is_a URI</t>
+  </si>
+  <si>
+    <t>ER Additional information</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -658,6 +661,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,13 +1066,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBB40E6-F06B-AE48-B869-B32AACDBDD09}">
-  <dimension ref="A1:AI30"/>
+  <dimension ref="A1:AH32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="24" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1107,11 +1116,11 @@
   <sheetData>
     <row r="1" spans="1:34" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="28"/>
-      <c r="C1" s="28" t="s">
-        <v>70</v>
+      <c r="C1" s="48" t="s">
+        <v>111</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="4"/>
@@ -1147,7 +1156,7 @@
     </row>
     <row r="2" spans="1:34" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1241,7 +1250,7 @@
     </row>
     <row r="3" spans="1:34" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1313,14 +1322,14 @@
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -1331,17 +1340,17 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
       <c r="U5" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -1352,7 +1361,7 @@
       <c r="AB5" s="18"/>
       <c r="AC5" s="18"/>
       <c r="AD5" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AE5" s="18"/>
       <c r="AF5" s="18"/>
@@ -1361,7 +1370,7 @@
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1377,7 +1386,7 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
@@ -1394,7 +1403,7 @@
       <c r="AB6" s="18"/>
       <c r="AC6" s="18"/>
       <c r="AD6" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AE6" s="18"/>
       <c r="AF6" s="18"/>
@@ -1403,7 +1412,7 @@
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1419,7 +1428,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
@@ -1436,7 +1445,7 @@
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
       <c r="AD7" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AE7" s="18"/>
       <c r="AF7" s="18"/>
@@ -1445,7 +1454,7 @@
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1461,7 +1470,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
@@ -1485,7 +1494,7 @@
     </row>
     <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1523,7 +1532,7 @@
     </row>
     <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1597,58 +1606,58 @@
     </row>
     <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
       <c r="X12" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AB12" s="19"/>
       <c r="AC12" s="19"/>
       <c r="AD12" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
@@ -1657,58 +1666,58 @@
     </row>
     <row r="13" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
       <c r="AD13" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE13" s="20"/>
       <c r="AF13" s="20"/>
@@ -1717,13 +1726,13 @@
     </row>
     <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -1759,13 +1768,13 @@
     </row>
     <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -1801,58 +1810,58 @@
     </row>
     <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
+        <v>75</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="40" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
       <c r="I16" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
       <c r="L16" s="40" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
       <c r="O16" s="41" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P16" s="41"/>
       <c r="Q16" s="41"/>
       <c r="R16" s="41" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="S16" s="41"/>
       <c r="T16" s="41"/>
       <c r="U16" s="40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="V16" s="41"/>
       <c r="W16" s="41"/>
       <c r="X16" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Y16" s="41"/>
       <c r="Z16" s="41"/>
       <c r="AA16" s="42" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AB16" s="41"/>
       <c r="AC16" s="41"/>
       <c r="AD16" s="42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AE16" s="21"/>
       <c r="AF16" s="21"/>
@@ -1861,10 +1870,10 @@
     </row>
     <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="22"/>
@@ -1901,19 +1910,17 @@
     </row>
     <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
@@ -1945,19 +1952,17 @@
     </row>
     <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="21" t="s">
-        <v>38</v>
-      </c>
+      <c r="F19" s="21"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
@@ -1988,16 +1993,18 @@
       <c r="AH19" s="15"/>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="27"/>
+      <c r="A20" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>113</v>
+      </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
@@ -2027,490 +2034,569 @@
       <c r="AG20" s="15"/>
       <c r="AH20" s="15"/>
     </row>
-    <row r="21" spans="1:34" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+    </row>
+    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="46"/>
-    </row>
-    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="23"/>
-    </row>
-    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="23"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+    </row>
+    <row r="23" spans="1:34" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
     </row>
     <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" t="s">
-        <v>96</v>
-      </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" t="s">
-        <v>96</v>
-      </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" t="s">
-        <v>96</v>
-      </c>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" t="s">
-        <v>96</v>
-      </c>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" t="s">
-        <v>96</v>
-      </c>
-      <c r="X24" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="15"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="23"/>
     </row>
     <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" t="s">
-        <v>97</v>
-      </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" t="s">
-        <v>97</v>
-      </c>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" t="s">
-        <v>97</v>
-      </c>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" t="s">
-        <v>97</v>
-      </c>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
     </row>
     <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>91</v>
+        <v>65</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>83</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
       <c r="O26" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
       <c r="R26" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="15"/>
       <c r="U26" t="s">
-        <v>66</v>
-      </c>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
+        <v>92</v>
+      </c>
       <c r="X26" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
+        <v>96</v>
+      </c>
       <c r="AA26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
+        <v>101</v>
+      </c>
       <c r="AD26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
+        <v>99</v>
+      </c>
       <c r="AG26" s="15"/>
       <c r="AH26" s="15"/>
     </row>
-    <row r="27" spans="1:34" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C27" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
       <c r="I27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
+        <v>93</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
       <c r="L27" t="s">
-        <v>98</v>
-      </c>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
+        <v>93</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
       <c r="O27" t="s">
-        <v>98</v>
-      </c>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
+        <v>93</v>
+      </c>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
       <c r="R27" t="s">
-        <v>98</v>
-      </c>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
+        <v>93</v>
+      </c>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
       <c r="U27" t="s">
-        <v>98</v>
-      </c>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
+        <v>93</v>
+      </c>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
       <c r="X27" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
+        <v>97</v>
+      </c>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
       <c r="AD27" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
-    </row>
-    <row r="28" spans="1:34" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+    </row>
+    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
       <c r="F28" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
       <c r="I28" t="s">
-        <v>99</v>
-      </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
       <c r="L28" t="s">
-        <v>99</v>
-      </c>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
       <c r="O28" t="s">
-        <v>99</v>
-      </c>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
       <c r="R28" t="s">
-        <v>99</v>
-      </c>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
       <c r="U28" t="s">
-        <v>99</v>
-      </c>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
       <c r="X28" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="16"/>
+        <v>64</v>
+      </c>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
     </row>
     <row r="29" spans="1:34" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" t="s">
+        <v>94</v>
+      </c>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" t="s">
+        <v>94</v>
+      </c>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" t="s">
+        <v>94</v>
+      </c>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" t="s">
+        <v>94</v>
+      </c>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+    </row>
+    <row r="30" spans="1:34" s="26" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="27"/>
-      <c r="AH29" s="27"/>
-    </row>
-    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="17"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" t="s">
+        <v>95</v>
+      </c>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" t="s">
+        <v>95</v>
+      </c>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" t="s">
+        <v>95</v>
+      </c>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
+    </row>
+    <row r="31" spans="1:34" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+    </row>
+    <row r="32" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F19" r:id="rId1" xr:uid="{5373345D-75E2-1F4C-8BAB-137B6CC77310}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>

--- a/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
+++ b/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/4COM01_RNASeq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\4COM01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BEC822-27C5-5D4D-98B0-6EF5CDFA0387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471B9D12-21C8-4015-B9E2-F2240706B95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3400" yWindow="-21100" windowWidth="28800" windowHeight="17500" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM01_RNASeq" sheetId="5" r:id="rId1"/>
@@ -463,9 +463,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{C330E3B2-2BF7-184E-8C2F-47A51BE085E3}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -547,7 +547,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -861,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBB40E6-F06B-AE48-B869-B32AACDBDD09}">
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
@@ -870,45 +870,45 @@
       <selection pane="bottomRight" sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="62.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="23.625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="62.375" style="16" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="68.5" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="47.83203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="47.875" style="16" customWidth="1"/>
     <col min="9" max="9" width="69" style="16" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="75.1640625" style="16" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="40.83203125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="72.83203125" style="16" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="75.125" style="16" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="40.875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="72.875" style="16" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="79" style="16" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="64.6640625" style="16" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="57.83203125" style="16" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="44.6640625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="71.6640625" style="16" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="77.83203125" style="16" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="40.83203125" style="16" customWidth="1"/>
+    <col min="14" max="14" width="24.625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="64.625" style="16" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="57.875" style="16" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="44.625" style="16" customWidth="1"/>
+    <col min="18" max="18" width="71.625" style="16" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="77.875" style="16" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="40.875" style="16" customWidth="1"/>
     <col min="21" max="21" width="75" style="16" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="81.33203125" style="16" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="44.33203125" style="16" customWidth="1"/>
-    <col min="24" max="24" width="67.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="81.375" style="16" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="44.375" style="16" customWidth="1"/>
+    <col min="24" max="24" width="67.125" style="16" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="6" style="16" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="40.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="64.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="40.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="64.125" style="16" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="70.5" style="16" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="37.5" style="16" customWidth="1"/>
-    <col min="30" max="30" width="65.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="65.375" style="16" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="71.5" style="16" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="67.83203125" style="16" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="67.875" style="16" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="7.5" style="16" hidden="1" customWidth="1"/>
     <col min="34" max="16384" width="41" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="2"/>
     </row>
-    <row r="2" spans="1:33" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
@@ -1075,7 +1075,7 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -1110,7 +1110,7 @@
       <c r="AF4" s="13"/>
       <c r="AG4" s="13"/>
     </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>46</v>
       </c>
@@ -1157,7 +1157,7 @@
       <c r="AF5" s="14"/>
       <c r="AG5" s="14"/>
     </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>46</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="AF6" s="14"/>
       <c r="AG6" s="14"/>
     </row>
-    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>46</v>
       </c>
@@ -1239,7 +1239,7 @@
       <c r="AF7" s="14"/>
       <c r="AG7" s="14"/>
     </row>
-    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>46</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="AF8" s="14"/>
       <c r="AG8" s="14"/>
     </row>
-    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
@@ -1315,7 +1315,7 @@
       <c r="AF9" s="14"/>
       <c r="AG9" s="14"/>
     </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="AF10" s="14"/>
       <c r="AG10" s="14"/>
     </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -1387,7 +1387,7 @@
       <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
     </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>63</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="AF12" s="11"/>
       <c r="AG12" s="11"/>
     </row>
-    <row r="13" spans="1:33" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>64</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="AF13" s="24"/>
       <c r="AG13" s="24"/>
     </row>
-    <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
@@ -1500,7 +1500,7 @@
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="15"/>
@@ -1535,7 +1535,7 @@
       <c r="AF15" s="15"/>
       <c r="AG15" s="15"/>
     </row>
-    <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="AF16" s="11"/>
       <c r="AG16" s="11"/>
     </row>
-    <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>44</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>44</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="AF18" s="11"/>
       <c r="AG18" s="11"/>
     </row>
-    <row r="19" spans="1:33" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
@@ -1753,7 +1753,7 @@
       <c r="AF19" s="12"/>
       <c r="AG19" s="12"/>
     </row>
-    <row r="20" spans="1:33" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>44</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="12"/>
     </row>
-    <row r="21" spans="1:33" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>44</v>
       </c>
@@ -1845,7 +1845,7 @@
       <c r="AF21" s="18"/>
       <c r="AG21" s="18"/>
     </row>
-    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="13"/>

--- a/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
+++ b/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\4COM01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471B9D12-21C8-4015-B9E2-F2240706B95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBE8DFA-E5F1-42D4-8E20-14314C401BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>Source Name</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>templating_notes</t>
+  </si>
+  <si>
+    <t>Data File Name</t>
   </si>
 </sst>
 </file>
@@ -332,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -345,15 +348,6 @@
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -375,16 +369,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -460,6 +451,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -509,9 +504,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B1E8DF05-C9A4-774C-927F-FE22EC52758A}" name="annotationTable3" displayName="annotationTable3" ref="C2:AE22" totalsRowShown="0">
-  <autoFilter ref="C2:AE22" xr:uid="{856B7222-837D-994E-B57E-2C90FB73CB67}"/>
-  <tableColumns count="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B1E8DF05-C9A4-774C-927F-FE22EC52758A}" name="annotationTable3" displayName="annotationTable3" ref="C2:AF22" totalsRowShown="0">
+  <autoFilter ref="C2:AF22" xr:uid="{856B7222-837D-994E-B57E-2C90FB73CB67}"/>
+  <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{FFCB64B6-F7E5-3141-8AC8-90DEF404CB27}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{83E02E49-7422-0646-B55C-39A1A7410443}" name="Sample Name"/>
     <tableColumn id="4" xr3:uid="{F9A5CAD2-0A38-694B-9DC8-DECACF24DB8E}" name="Parameter [Data filtering software]" dataDxfId="8"/>
@@ -541,6 +536,7 @@
     <tableColumn id="34" xr3:uid="{31F0606E-CA0F-2845-B598-91818C3E8DED}" name="Parameter [Processed data file format]" dataDxfId="0"/>
     <tableColumn id="35" xr3:uid="{2242708D-0E7B-4A4C-9438-B9769BD4A175}" name="Term Source REF [Processed data file format] (#h; #tNFDI4PSO:0000027)"/>
     <tableColumn id="36" xr3:uid="{41E1DBD7-6CC8-3044-87D9-F4CBA8FAA96B}" name="Term Accession Number [Processed data file format] (#h; #tNFDI4PSO:0000027)"/>
+    <tableColumn id="3" xr3:uid="{E6658B01-4B8C-4077-9FDC-4E84EE282435}" name="Data File Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -843,7 +839,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="615" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -863,95 +859,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBB40E6-F06B-AE48-B869-B32AACDBDD09}">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" sqref="A1:B13"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="62.375" style="16" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="68.5" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="47.875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="69" style="16" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="75.125" style="16" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="40.875" style="16" customWidth="1"/>
-    <col min="12" max="12" width="72.875" style="16" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="79" style="16" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="24.625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="64.625" style="16" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="57.875" style="16" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="44.625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="71.625" style="16" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="77.875" style="16" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="40.875" style="16" customWidth="1"/>
-    <col min="21" max="21" width="75" style="16" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="81.375" style="16" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="44.375" style="16" customWidth="1"/>
-    <col min="24" max="24" width="67.125" style="16" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="6" style="16" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="40.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="64.125" style="16" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="70.5" style="16" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="37.5" style="16" customWidth="1"/>
-    <col min="30" max="30" width="65.375" style="16" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="71.5" style="16" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="67.875" style="16" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="7.5" style="16" hidden="1" customWidth="1"/>
-    <col min="34" max="16384" width="41" style="16"/>
+    <col min="1" max="1" width="23.625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="34" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="15" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="68.375" style="15" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="42.125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="68.75" style="15" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="75.375" style="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="43.625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="72.625" style="15" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="79.125" style="15" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="41.875" style="15" customWidth="1"/>
+    <col min="15" max="15" width="64.625" style="15" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="71.125" style="15" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="42.5" style="15" customWidth="1"/>
+    <col min="18" max="18" width="71.625" style="15" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="78.125" style="15" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="45.875" style="15" customWidth="1"/>
+    <col min="21" max="21" width="75.125" style="15" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="81.625" style="15" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="37.875" style="15" customWidth="1"/>
+    <col min="24" max="24" width="67" style="15" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="73.5" style="15" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="35.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="63.875" style="15" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="70.5" style="15" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="36.5" style="15" customWidth="1"/>
+    <col min="30" max="30" width="65.125" style="15" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="71.625" style="15" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="15.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="41" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:33" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="2"/>
-    </row>
-    <row r="2" spans="1:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+    </row>
+    <row r="2" spans="1:33" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="4"/>
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -1039,846 +1033,850 @@
       <c r="AE2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="AF2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="2"/>
       <c r="I3"/>
       <c r="J3"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="2"/>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3" s="3"/>
+      <c r="N3" s="2"/>
       <c r="O3"/>
       <c r="P3"/>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="2"/>
       <c r="R3"/>
       <c r="S3"/>
-      <c r="T3" s="3"/>
+      <c r="T3" s="2"/>
       <c r="U3"/>
       <c r="V3"/>
-      <c r="W3" s="3"/>
+      <c r="W3" s="2"/>
       <c r="X3"/>
       <c r="Y3"/>
-      <c r="Z3" s="3"/>
+      <c r="Z3" s="2"/>
       <c r="AA3"/>
       <c r="AB3"/>
-      <c r="AC3" s="3"/>
+      <c r="AC3" s="2"/>
       <c r="AD3"/>
       <c r="AE3"/>
-    </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-    </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="AF3" s="2"/>
+    </row>
+    <row r="4" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="12"/>
+    </row>
+    <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="27" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="27" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="27" t="s">
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="27" t="s">
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="27" t="s">
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-    </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="13"/>
+    </row>
+    <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="27" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="27" t="s">
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-    </row>
-    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="13"/>
+    </row>
+    <row r="7" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="27" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="27" t="s">
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-    </row>
-    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="13"/>
+    </row>
+    <row r="8" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="27" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-    </row>
-    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="13"/>
+    </row>
+    <row r="9" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-    </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="13"/>
+    </row>
+    <row r="10" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-    </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-    </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="13"/>
+    </row>
+    <row r="11" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="12"/>
+    </row>
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-    </row>
-    <row r="13" spans="1:33" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="10"/>
+    </row>
+    <row r="13" spans="1:33" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-    </row>
-    <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-    </row>
-    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-    </row>
-    <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="23"/>
+    </row>
+    <row r="14" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="14"/>
+    </row>
+    <row r="15" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="14"/>
+    </row>
+    <row r="16" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="3" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="3" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="3" t="s">
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="3" t="s">
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="3" t="s">
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="3" t="s">
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="W16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="Z16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AC16" s="3" t="s">
+      <c r="AC16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-    </row>
-    <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="10"/>
+    </row>
+    <row r="17" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="3" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="3" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="3" t="s">
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="3" t="s">
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="3" t="s">
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="3" t="s">
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="3" t="s">
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="3" t="s">
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-    </row>
-    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="10"/>
+    </row>
+    <row r="18" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="3" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="3" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="3" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="3" t="s">
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="3" t="s">
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="3" t="s">
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="3" t="s">
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="3" t="s">
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="3" t="s">
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-    </row>
-    <row r="19" spans="1:33" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="10"/>
+    </row>
+    <row r="19" spans="1:33" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="3" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="3" t="s">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="3" t="s">
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="3" t="s">
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="3" t="s">
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="3" t="s">
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="3" t="s">
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="3" t="s">
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="3" t="s">
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-    </row>
-    <row r="20" spans="1:33" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="11"/>
+    </row>
+    <row r="20" spans="1:33" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="3" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="3" t="s">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="3" t="s">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="3" t="s">
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="3" t="s">
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="3" t="s">
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="3" t="s">
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-    </row>
-    <row r="21" spans="1:33" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="11"/>
+    </row>
+    <row r="21" spans="1:33" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-    </row>
-    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="17"/>
+    </row>
+    <row r="22" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1895,9 +1893,9 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTable3" Worksheet="4COM01_RNASeq">
-    <TableValidation DateTime="2021-03-11 15:14" SwateVersion="0.4.4" TableName="annotationTable3" Userlist="" WorksheetName="4COM01_RNASeq">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="5" Unit="None" ValidationFormat="Text"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="5" Unit="None" ValidationFormat="Text"/>
+    <TableValidation DateTime="2021-09-13 14:22" SwateVersion="0.4.7" TableName="annotationTable3" Userlist="" WorksheetName="4COM01_RNASeq">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [Data filtering software]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Data filtering software version]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="8" ColumnHeader="Parameter [Data filtering Software Parameters]" Importance="None" Unit="None" ValidationFormat="None"/>
@@ -1907,14 +1905,14 @@
       <ColumnValidation ColumnAdress="20" ColumnHeader="Parameter [Genome reference sequence]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="23" ColumnHeader="Parameter [Processed data file name]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="26" ColumnHeader="Parameter [Processed data file format]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="29" ColumnHeader="Parameter [Processed data file checksum]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="29" ColumnHeader="Data File Name" Importance="None" Unit="None" ValidationFormat="None"/>
     </TableValidation>
   </SwateTable>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6591069A-0595-5347-9256-EB9AF5C15588}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FD94A40-9C27-4946-A100-767C6FFB9B08}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
+++ b/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A09BF98-7824-4AF6-8D8F-7646423FBC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658C104B-D049-43BA-8F76-9B53F4C04FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="4COM01_RNASeq" sheetId="1" r:id="rId1"/>
+    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +25,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2E0A847E-16F7-42B3-A6DC-C04983699CDE}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2E0A847E-16F7-42B3-A6DC-C04983699CDE}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    The unique identifier of this template. It will be auto generated.
+Antwort:
+    id=007b0410-87dd-4f76-b9d7-4eb5432af367</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Source Name</t>
   </si>
@@ -103,13 +124,145 @@
   </si>
   <si>
     <t>Data File Name</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Docslink</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>#ER list</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ER Term Accession Number</t>
+  </si>
+  <si>
+    <t>ER Term Source REF</t>
+  </si>
+  <si>
+    <t>#TAGS list</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Tags Term Accession Number</t>
+  </si>
+  <si>
+    <t>Tags Term Source REF</t>
+  </si>
+  <si>
+    <t>#AUTHORS list</t>
+  </si>
+  <si>
+    <t>Authors Last Name</t>
+  </si>
+  <si>
+    <t>Authors First Name</t>
+  </si>
+  <si>
+    <t>Authors Mid Initials</t>
+  </si>
+  <si>
+    <t>Authors Email</t>
+  </si>
+  <si>
+    <t>Authors Phone</t>
+  </si>
+  <si>
+    <t>Authors Fax</t>
+  </si>
+  <si>
+    <t>Authors Address</t>
+  </si>
+  <si>
+    <t>Authors Affiliation</t>
+  </si>
+  <si>
+    <t>#AUTHORS ROLES list</t>
+  </si>
+  <si>
+    <t>Authors Roles</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Source REF</t>
+  </si>
+  <si>
+    <t>007b0410-87dd-4f76-b9d7-4eb5432af367</t>
+  </si>
+  <si>
+    <t>RNA-Seq Computational Analysis</t>
+  </si>
+  <si>
+    <t>Template to describe the computational analysis of RNA-Seq data.</t>
+  </si>
+  <si>
+    <t>annotationTableOrdinaryCat87</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>Transcriptomics</t>
+  </si>
+  <si>
+    <t>mRNASeq</t>
+  </si>
+  <si>
+    <t>RNASeq</t>
+  </si>
+  <si>
+    <t>Computational Analysis</t>
+  </si>
+  <si>
+    <t>Jabeen</t>
+  </si>
+  <si>
+    <t>Brilhaus</t>
+  </si>
+  <si>
+    <t>Maus</t>
+  </si>
+  <si>
+    <t>Hajira</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,19 +270,127 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF217346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FCDB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E5C2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC21F3A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -138,8 +399,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -155,6 +446,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oliver Maus" id="{62F69B90-F006-4481-9F1D-FE07DF8BDCC1}" userId="Oliver Maus" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,9 +750,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-11-03T16:57:29.70" personId="{62F69B90-F006-4481-9F1D-FE07DF8BDCC1}" id="{2E0A847E-16F7-42B3-A6DC-C04983699CDE}">
+    <text>The unique identifier of this template. It will be auto generated.</text>
+  </threadedComment>
+  <threadedComment ref="A1" dT="2021-11-03T16:57:29.70" personId="{62F69B90-F006-4481-9F1D-FE07DF8BDCC1}" id="{8E4F3E3D-5E76-4F74-BDFE-8BA8B13CADDA}" parentId="{2E0A847E-16F7-42B3-A6DC-C04983699CDE}">
+    <text>id=007b0410-87dd-4f76-b9d7-4eb5432af367</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="641" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -593,4 +901,282 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11AFC42-7216-4420-8824-56B92332BA6B}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<customXml>
+  <SwateTable Table="annotationTableOrdinaryCat87">
+    <TableValidation DateTime="2021-11-03 16:57" SwateVersion="0.5.1" TableName="annotationTableOrdinaryCat87" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [Data filtering software]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [Data filtering software version]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [Data filtering Software Parameters]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="10" ColumnHeader="Parameter [Read Alignment Software]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="13" ColumnHeader="Parameter [Read Alignment Software Version]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="16" ColumnHeader="Parameter [Read Alignment Software Parameters]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="19" ColumnHeader="Parameter [Genome reference sequence]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="22" ColumnHeader="Parameter [Processed data file format]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="25" ColumnHeader="Data File Name" Importance="None" Unit="None" ValidationFormat="None"/>
+    </TableValidation>
+  </SwateTable>
+</customXml>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7BF3CE0-0436-46AE-9B26-CA22511F9B1A}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
+++ b/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658C104B-D049-43BA-8F76-9B53F4C04FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23938B18-AC58-4602-A7EA-428B677B7F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM01_RNASeq" sheetId="1" r:id="rId1"/>
@@ -255,14 +255,14 @@
     <t>Oliver</t>
   </si>
   <si>
-    <t>1.1.4</t>
+    <t>1.1.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,12 +277,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -783,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -907,7 +901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11AFC42-7216-4420-8824-56B92332BA6B}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
+++ b/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23938B18-AC58-4602-A7EA-428B677B7F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658C104B-D049-43BA-8F76-9B53F4C04FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM01_RNASeq" sheetId="1" r:id="rId1"/>
@@ -255,14 +255,14 @@
     <t>Oliver</t>
   </si>
   <si>
-    <t>1.1.5</t>
+    <t>1.1.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +277,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -777,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -901,9 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11AFC42-7216-4420-8824-56B92332BA6B}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
+++ b/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658C104B-D049-43BA-8F76-9B53F4C04FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52EC54E-B166-462B-9A40-F37C96B933FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM01_RNASeq" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="GEO_RNASEQ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="103">
   <si>
     <t>Source Name</t>
   </si>
@@ -256,13 +257,112 @@
   </si>
   <si>
     <t>1.1.4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TermSourceRef</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>Content type (validation)</t>
+  </si>
+  <si>
+    <t>Notes during templating</t>
+  </si>
+  <si>
+    <t>Target term</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>Requirement (m/o/n)</t>
+  </si>
+  <si>
+    <t>Value (cv/s/d)</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>Sample Name</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000023</t>
+  </si>
+  <si>
+    <t>NFDI4PSO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000023</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000024</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000024</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000025</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000025</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000002</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000002</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000003</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000003</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000004</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000004</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000026</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000026</t>
+  </si>
+  <si>
+    <t>Parameter [Processed data file name]</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000028</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000028</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000027</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000027</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,12 +377,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -783,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1156,6 +1250,529 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableOrdinaryCat87">

--- a/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
+++ b/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52EC54E-B166-462B-9A40-F37C96B933FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D662DC7-2A13-45DF-9373-3606E632FD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM01_RNASeq" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
     <sheet name="GEO_RNASEQ" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="115">
   <si>
     <t>Source Name</t>
   </si>
@@ -356,6 +365,49 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000027</t>
+  </si>
+  <si>
+    <t>DATA PROCESSING PIPELINE_data processing step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide details of how processed data were generated. Steps may include:
+Base-calling software, version, parameters;
+Data filtering steps;
+Read alignment software, version, parameters;
+Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
+etc...
+</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>at least some info is required, but not all terms</t>
+  </si>
+  <si>
+    <t>DATA PROCESSING PIPELINE_genome build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCSC or NCBI genome build number (e.g., hg18, mm9, human NCBI genome build 36, etc...), or reference sequence used for read alignment. 
+</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCSC or NCBI genome build number </t>
+  </si>
+  <si>
+    <t>PROCESSED DATA FILES_file name</t>
+  </si>
+  <si>
+    <t>PROCESSED DATA FILES_file type</t>
+  </si>
+  <si>
+    <t>The type of processed file. Examples include, peak, wig, bed, gff, bigWig, etc...</t>
   </si>
 </sst>
 </file>
@@ -411,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -489,11 +541,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD2D2D2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD2D2D2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD2D2D2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD2D2D2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -524,6 +591,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1254,9 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1266,7 +1337,7 @@
     <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1275,498 +1346,438 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" t="s">
-        <v>70</v>
-      </c>
+      <c r="B2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L3" t="s">
-        <v>70</v>
-      </c>
+      <c r="B3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
+      <c r="E4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>70</v>
-      </c>
+      <c r="E5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" t="s">
-        <v>70</v>
-      </c>
+      <c r="E6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" t="s">
-        <v>70</v>
-      </c>
+      <c r="E7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" t="s">
-        <v>70</v>
-      </c>
+      <c r="E8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" t="s">
-        <v>70</v>
-      </c>
+      <c r="E9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" t="s">
-        <v>70</v>
-      </c>
+      <c r="E10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" t="s">
-        <v>70</v>
-      </c>
+      <c r="E11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" t="s">
-        <v>70</v>
-      </c>
+      <c r="E12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" t="s">
-        <v>70</v>
-      </c>
+      <c r="B13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
+++ b/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D662DC7-2A13-45DF-9373-3606E632FD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C810259E-9DD1-44DB-8B9A-1BE6667AECB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
   <si>
     <t>Source Name</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>Oliver</t>
-  </si>
-  <si>
-    <t>1.1.4</t>
   </si>
   <si>
     <t/>
@@ -409,12 +406,45 @@
   <si>
     <t>The type of processed file. Examples include, peak, wig, bed, gff, bigWig, etc...</t>
   </si>
+  <si>
+    <t>Trimmomatic</t>
+  </si>
+  <si>
+    <t>Kallisto</t>
+  </si>
+  <si>
+    <t>HiSat2</t>
+  </si>
+  <si>
+    <t>STAR</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>0.45.1</t>
+  </si>
+  <si>
+    <t>kallisto quant -b 50 -t 10</t>
+  </si>
+  <si>
+    <t>.xlsx</t>
+  </si>
+  <si>
+    <t>.txt</t>
+  </si>
+  <si>
+    <t>.csv</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +456,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -557,8 +594,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -599,7 +637,8 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{4500580F-8250-44DE-8BB2-4BA9BB0A7E04}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -622,8 +661,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CA35855-14C3-457D-88F0-CFCCF85B5663}" name="annotationTableOrdinaryCat87" displayName="annotationTableOrdinaryCat87" ref="A1:Z2" totalsRowShown="0">
-  <autoFilter ref="A1:Z2" xr:uid="{3CA35855-14C3-457D-88F0-CFCCF85B5663}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CA35855-14C3-457D-88F0-CFCCF85B5663}" name="annotationTableOrdinaryCat87" displayName="annotationTableOrdinaryCat87" ref="A1:Z5" totalsRowShown="0">
+  <autoFilter ref="A1:Z5" xr:uid="{3CA35855-14C3-457D-88F0-CFCCF85B5663}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{93380294-CB8D-42FC-AF8E-9805327345E7}" name="Source Name"/>
     <tableColumn id="3" xr3:uid="{80D6BC30-7F04-4051-BF2F-665DB88B06AE}" name="Parameter [Data filtering software]"/>
@@ -933,6 +972,9 @@
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="709" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
@@ -946,9 +988,19 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{84C3D8ED-430B-4B64-9B77-E2BB6EDDD3A8}">
+  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad84" version="0.5.1.0" store="\\DT-P-2020-04-OM\swate_manifests" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1062,6 +1114,44 @@
         <v>25</v>
       </c>
     </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>120</v>
+      </c>
+      <c r="W2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>116</v>
+      </c>
+      <c r="W3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>117</v>
+      </c>
+      <c r="W4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1104,7 +1194,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1347,40 +1437,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1388,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -1411,22 +1501,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -1440,34 +1530,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="L4" s="11"/>
     </row>
@@ -1476,34 +1566,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="L5" s="11"/>
     </row>
@@ -1512,34 +1602,34 @@
         <v>7</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>89</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="L6" s="11"/>
     </row>
@@ -1548,34 +1638,34 @@
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>91</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="L7" s="11"/>
     </row>
@@ -1584,34 +1674,34 @@
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="L8" s="11"/>
     </row>
@@ -1620,34 +1710,34 @@
         <v>16</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>95</v>
-      </c>
       <c r="E9" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="L9" s="11"/>
     </row>
@@ -1656,65 +1746,65 @@
         <v>19</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="E10" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="E11" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -1724,31 +1814,31 @@
         <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="E12" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="I12" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -1758,19 +1848,19 @@
         <v>25</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>

--- a/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
+++ b/templates/4COM01_RNASeq/4COM01_RNASeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C810259E-9DD1-44DB-8B9A-1BE6667AECB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A46CF9-F033-477A-8A3F-9FFBFBB75377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM01_RNASeq" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="128">
   <si>
     <t>Source Name</t>
   </si>
@@ -98,12 +98,6 @@
   </si>
   <si>
     <t>Parameter [Read Alignment Software Version]</t>
-  </si>
-  <si>
-    <t>Term Source REF ()</t>
-  </si>
-  <si>
-    <t>Term Accession Number ()</t>
   </si>
   <si>
     <t>Parameter [Read Alignment Software Parameters]</t>
@@ -416,9 +410,6 @@
     <t>HiSat2</t>
   </si>
   <si>
-    <t>STAR</t>
-  </si>
-  <si>
     <t>BWA</t>
   </si>
   <si>
@@ -437,7 +428,25 @@
     <t>.csv</t>
   </si>
   <si>
-    <t>1.1.5</t>
+    <t>Term Source REF (NFDI4PSO:0000003)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NFDI4PSO:0000003)</t>
+  </si>
+  <si>
+    <t>user-specific</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>ENVO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000801</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
   </si>
 </sst>
 </file>
@@ -678,8 +687,8 @@
     <tableColumn id="13" xr3:uid="{C06CE5B8-351F-4CC2-AEDB-CAA06DAD68B6}" name="Term Source REF (NFDI4PSO:0000002)"/>
     <tableColumn id="14" xr3:uid="{5B717FBF-AB22-4178-9622-551149AEDBA2}" name="Term Accession Number (NFDI4PSO:0000002)"/>
     <tableColumn id="15" xr3:uid="{CC9E8F0E-F0C9-4C42-ABEE-8FABEE5CBCD5}" name="Parameter [Read Alignment Software Version]"/>
-    <tableColumn id="16" xr3:uid="{890B3357-096C-4D52-91F6-A6CDBEECF667}" name="Term Source REF ()"/>
-    <tableColumn id="17" xr3:uid="{95E4BB7E-6478-4A1E-A824-1B4419C317BC}" name="Term Accession Number ()"/>
+    <tableColumn id="16" xr3:uid="{890B3357-096C-4D52-91F6-A6CDBEECF667}" name="Term Source REF (NFDI4PSO:0000003)"/>
+    <tableColumn id="17" xr3:uid="{95E4BB7E-6478-4A1E-A824-1B4419C317BC}" name="Term Accession Number (NFDI4PSO:0000003)"/>
     <tableColumn id="18" xr3:uid="{B9705BE2-174E-4479-AB52-6D4198B45A1B}" name="Parameter [Read Alignment Software Parameters]"/>
     <tableColumn id="19" xr3:uid="{9AB9BF6B-E892-417F-ADF0-011CB0B3775F}" name="Term Source REF (NFDI4PSO:0000004)"/>
     <tableColumn id="20" xr3:uid="{52486034-F12F-4102-A0B2-90A45F35CBA8}" name="Term Accession Number (NFDI4PSO:0000004)"/>
@@ -969,7 +978,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="617" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="709" row="2">
@@ -1078,78 +1087,138 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" t="s">
+        <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="L2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" t="s">
+        <v>123</v>
       </c>
       <c r="N2" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="O2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" t="s">
+        <v>123</v>
       </c>
       <c r="Q2" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="R2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S2" t="s">
+        <v>123</v>
       </c>
       <c r="W2" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="X2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="L3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" t="s">
+        <v>123</v>
       </c>
       <c r="W3" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="X3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="L4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" t="s">
+        <v>126</v>
       </c>
       <c r="W4" t="s">
+        <v>120</v>
+      </c>
+      <c r="X4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="L5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1175,109 +1244,109 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
@@ -1287,7 +1356,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
@@ -1297,41 +1366,41 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
@@ -1339,7 +1408,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="8"/>
@@ -1347,7 +1416,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="8"/>
@@ -1355,7 +1424,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="8"/>
@@ -1363,7 +1432,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="8"/>
@@ -1371,7 +1440,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="8"/>
@@ -1379,13 +1448,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1393,7 +1462,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="8"/>
@@ -1401,7 +1470,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="8"/>
@@ -1437,40 +1506,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1478,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -1501,22 +1570,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -1530,34 +1599,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>84</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="L4" s="11"/>
     </row>
@@ -1566,34 +1635,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="L5" s="11"/>
     </row>
@@ -1602,34 +1671,34 @@
         <v>7</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="L6" s="11"/>
     </row>
@@ -1638,34 +1707,34 @@
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="L7" s="11"/>
     </row>
@@ -1674,193 +1743,193 @@
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="J10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>110</v>
       </c>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>99</v>
-      </c>
       <c r="E11" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
